--- a/alunos_NPS1017_T11_chamada.xlsx
+++ b/alunos_NPS1017_T11_chamada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\r_dcg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\r_dcg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1EADE7-AF98-4ADF-A37E-F5156A811013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10BF2DB-5E99-40C3-9138-498B12F98D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="150" windowWidth="17145" windowHeight="20850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alunos_NPS1017_T11" sheetId="1" r:id="rId1"/>
@@ -1005,18 +1005,18 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.29296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.41015625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1043,11 +1043,14 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1057,11 +1060,14 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1071,11 +1077,14 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="E4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1085,11 +1094,14 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1099,11 +1111,14 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1113,11 +1128,14 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
       <c r="E7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1127,11 +1145,14 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
       <c r="E8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1141,11 +1162,14 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="E9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1155,11 +1179,14 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
       <c r="E10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1169,11 +1196,14 @@
       <c r="C11" t="s">
         <v>22</v>
       </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1183,11 +1213,14 @@
       <c r="C12" t="s">
         <v>24</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1197,11 +1230,14 @@
       <c r="C13" t="s">
         <v>26</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="E13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1211,11 +1247,14 @@
       <c r="C14" t="s">
         <v>28</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="E14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1225,11 +1264,14 @@
       <c r="C15" t="s">
         <v>30</v>
       </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1239,11 +1281,14 @@
       <c r="C16" t="s">
         <v>32</v>
       </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1253,11 +1298,14 @@
       <c r="C17" t="s">
         <v>34</v>
       </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1267,11 +1315,14 @@
       <c r="C18" t="s">
         <v>36</v>
       </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
       <c r="E18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1281,11 +1332,14 @@
       <c r="C19" t="s">
         <v>38</v>
       </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
       <c r="E19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1295,11 +1349,14 @@
       <c r="C20" t="s">
         <v>40</v>
       </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
       <c r="E20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1309,11 +1366,14 @@
       <c r="C21" t="s">
         <v>42</v>
       </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
       <c r="E21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1323,11 +1383,14 @@
       <c r="C22" t="s">
         <v>44</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
       <c r="E22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1336,6 +1399,9 @@
       </c>
       <c r="C23" t="s">
         <v>46</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>

--- a/alunos_NPS1017_T11_chamada.xlsx
+++ b/alunos_NPS1017_T11_chamada.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\r_dcg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10BF2DB-5E99-40C3-9138-498B12F98D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EF3C29-AE56-4974-BD0C-BFC17ED392C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alunos_NPS1017_T11" sheetId="1" r:id="rId1"/>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1409,5 +1409,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>